--- a/portfolio/allocation/S&P 500 Portfolio.xlsx
+++ b/portfolio/allocation/S&P 500 Portfolio.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeroenbouma/Documents/OpenBB Dany/portfolio/allocation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54AE961-3168-8F4C-A62F-463970CC23ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CADC1AA-D92A-9F48-8090-712D17826DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{09AD307C-AFDD-734B-8A1F-F9F0177E6514}"/>
   </bookViews>
   <sheets>
-    <sheet name="allocation" sheetId="1" r:id="rId1"/>
+    <sheet name="Allocation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -2369,7 +2369,7 @@
   <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2589,11 +2589,11 @@
         <v>23</v>
       </c>
       <c r="J7" s="2">
-        <f>SUMIF(C:C,I7,F:F)</f>
+        <f t="shared" ref="J7:J17" si="0">SUMIF(C:C,I7,F:F)</f>
         <v>39695148</v>
       </c>
       <c r="K7" s="3">
-        <f>J7/$J$18</f>
+        <f t="shared" ref="K7:K18" si="1">J7/$J$18</f>
         <v>0.15381347857043112</v>
       </c>
     </row>
@@ -2623,11 +2623,11 @@
         <v>29</v>
       </c>
       <c r="J8" s="2">
-        <f>SUMIF(C:C,I8,F:F)</f>
+        <f t="shared" si="0"/>
         <v>31923423</v>
       </c>
       <c r="K8" s="3">
-        <f>J8/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.12369906618071579</v>
       </c>
     </row>
@@ -2657,11 +2657,11 @@
         <v>33</v>
       </c>
       <c r="J9" s="2">
-        <f>SUMIF(C:C,I9,F:F)</f>
+        <f t="shared" si="0"/>
         <v>37669554</v>
       </c>
       <c r="K9" s="3">
-        <f>J9/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.14596456818694059</v>
       </c>
     </row>
@@ -2691,11 +2691,11 @@
         <v>24</v>
       </c>
       <c r="J10" s="2">
-        <f>SUMIF(C:C,I10,F:F)</f>
+        <f t="shared" si="0"/>
         <v>14934743</v>
       </c>
       <c r="K10" s="3">
-        <f>J10/$J$18</f>
+        <f t="shared" si="1"/>
         <v>5.7870165199671163E-2</v>
       </c>
     </row>
@@ -2725,11 +2725,11 @@
         <v>36</v>
       </c>
       <c r="J11" s="2">
-        <f>SUMIF(C:C,I11,F:F)</f>
+        <f t="shared" si="0"/>
         <v>16924669</v>
       </c>
       <c r="K11" s="3">
-        <f>J11/$J$18</f>
+        <f t="shared" si="1"/>
         <v>6.5580866773519528E-2</v>
       </c>
     </row>
@@ -2759,11 +2759,11 @@
         <v>39</v>
       </c>
       <c r="J12" s="2">
-        <f>SUMIF(C:C,I12,F:F)</f>
+        <f t="shared" si="0"/>
         <v>31210119</v>
       </c>
       <c r="K12" s="3">
-        <f>J12/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.12093510698050818</v>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
         <v>25</v>
       </c>
       <c r="J13" s="2">
-        <f>SUMIF(C:C,I13,F:F)</f>
+        <f t="shared" si="0"/>
         <v>13754853</v>
       </c>
       <c r="K13" s="3">
-        <f>J13/$J$18</f>
+        <f t="shared" si="1"/>
         <v>5.3298246605729502E-2</v>
       </c>
     </row>
@@ -2827,11 +2827,11 @@
         <v>43</v>
       </c>
       <c r="J14" s="2">
-        <f>SUMIF(C:C,I14,F:F)</f>
+        <f t="shared" si="0"/>
         <v>31085358</v>
       </c>
       <c r="K14" s="3">
-        <f>J14/$J$18</f>
+        <f t="shared" si="1"/>
         <v>0.12045167451163502</v>
       </c>
     </row>
@@ -2861,11 +2861,11 @@
         <v>46</v>
       </c>
       <c r="J15" s="2">
-        <f>SUMIF(C:C,I15,F:F)</f>
+        <f t="shared" si="0"/>
         <v>14155430</v>
       </c>
       <c r="K15" s="3">
-        <f>J15/$J$18</f>
+        <f t="shared" si="1"/>
         <v>5.4850429804676325E-2</v>
       </c>
     </row>
@@ -2895,11 +2895,11 @@
         <v>51</v>
       </c>
       <c r="J16" s="2">
-        <f>SUMIF(C:C,I16,F:F)</f>
+        <f t="shared" si="0"/>
         <v>17137343</v>
       </c>
       <c r="K16" s="3">
-        <f>J16/$J$18</f>
+        <f t="shared" si="1"/>
         <v>6.6404950556794198E-2</v>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
         <v>22</v>
       </c>
       <c r="J17" s="2">
-        <f>SUMIF(C:C,I17,F:F)</f>
+        <f t="shared" si="0"/>
         <v>9582634</v>
       </c>
       <c r="K17" s="3">
-        <f>J17/$J$18</f>
+        <f t="shared" si="1"/>
         <v>3.7131446629378603E-2</v>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
         <v>258073274</v>
       </c>
       <c r="K18" s="3">
-        <f>J18/$J$18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -3052,11 +3052,11 @@
         <v>511</v>
       </c>
       <c r="J21" s="2">
-        <f>SUMIF(D:D,I21,F:F)</f>
+        <f t="shared" ref="J21:J52" si="2">SUMIF(D:D,I21,F:F)</f>
         <v>2296282</v>
       </c>
       <c r="K21" s="3">
-        <f>J21/$J$144</f>
+        <f t="shared" ref="K21:K52" si="3">J21/$J$144</f>
         <v>8.8977907878984783E-3</v>
       </c>
     </row>
@@ -3086,11 +3086,11 @@
         <v>512</v>
       </c>
       <c r="J22" s="2">
-        <f>SUMIF(D:D,I22,F:F)</f>
+        <f t="shared" si="2"/>
         <v>4409820</v>
       </c>
       <c r="K22" s="3">
-        <f>J22/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.7087472606714015E-2</v>
       </c>
     </row>
@@ -3120,11 +3120,11 @@
         <v>513</v>
       </c>
       <c r="J23" s="2">
-        <f>SUMIF(D:D,I23,F:F)</f>
+        <f t="shared" si="2"/>
         <v>8149337</v>
       </c>
       <c r="K23" s="3">
-        <f>J23/$J$144</f>
+        <f t="shared" si="3"/>
         <v>3.1577609233569844E-2</v>
       </c>
     </row>
@@ -3154,11 +3154,11 @@
         <v>514</v>
       </c>
       <c r="J24" s="2">
-        <f>SUMIF(D:D,I24,F:F)</f>
+        <f t="shared" si="2"/>
         <v>3291203</v>
       </c>
       <c r="K24" s="3">
-        <f>J24/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.2752978830345679E-2</v>
       </c>
     </row>
@@ -3188,11 +3188,11 @@
         <v>515</v>
       </c>
       <c r="J25" s="2">
-        <f>SUMIF(D:D,I25,F:F)</f>
+        <f t="shared" si="2"/>
         <v>3266420</v>
       </c>
       <c r="K25" s="3">
-        <f>J25/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.2656947964321172E-2</v>
       </c>
     </row>
@@ -3222,11 +3222,11 @@
         <v>516</v>
       </c>
       <c r="J26" s="2">
-        <f>SUMIF(D:D,I26,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2508577</v>
       </c>
       <c r="K26" s="3">
-        <f>J26/$J$144</f>
+        <f t="shared" si="3"/>
         <v>9.7204059960118144E-3</v>
       </c>
     </row>
@@ -3256,11 +3256,11 @@
         <v>517</v>
       </c>
       <c r="J27" s="2">
-        <f>SUMIF(D:D,I27,F:F)</f>
+        <f t="shared" si="2"/>
         <v>673353</v>
       </c>
       <c r="K27" s="3">
-        <f>J27/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.6091543287818327E-3</v>
       </c>
     </row>
@@ -3290,11 +3290,11 @@
         <v>518</v>
       </c>
       <c r="J28" s="2">
-        <f>SUMIF(D:D,I28,F:F)</f>
+        <f t="shared" si="2"/>
         <v>7331023</v>
       </c>
       <c r="K28" s="3">
-        <f>J28/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.8406750092223806E-2</v>
       </c>
     </row>
@@ -3324,11 +3324,11 @@
         <v>519</v>
       </c>
       <c r="J29" s="2">
-        <f>SUMIF(D:D,I29,F:F)</f>
+        <f t="shared" si="2"/>
         <v>7211124</v>
       </c>
       <c r="K29" s="3">
-        <f>J29/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.7942157233995488E-2</v>
       </c>
     </row>
@@ -3358,11 +3358,11 @@
         <v>520</v>
       </c>
       <c r="J30" s="2">
-        <f>SUMIF(D:D,I30,F:F)</f>
+        <f t="shared" si="2"/>
         <v>787379</v>
       </c>
       <c r="K30" s="3">
-        <f>J30/$J$144</f>
+        <f t="shared" si="3"/>
         <v>3.0509900843122563E-3</v>
       </c>
     </row>
@@ -3392,11 +3392,11 @@
         <v>521</v>
       </c>
       <c r="J31" s="2">
-        <f>SUMIF(D:D,I31,F:F)</f>
+        <f t="shared" si="2"/>
         <v>782839</v>
       </c>
       <c r="K31" s="3">
-        <f>J31/$J$144</f>
+        <f t="shared" si="3"/>
         <v>3.0333981813242699E-3</v>
       </c>
     </row>
@@ -3426,11 +3426,11 @@
         <v>522</v>
       </c>
       <c r="J32" s="2">
-        <f>SUMIF(D:D,I32,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2263892</v>
       </c>
       <c r="K32" s="3">
-        <f>J32/$J$144</f>
+        <f t="shared" si="3"/>
         <v>8.7722837971978447E-3</v>
       </c>
     </row>
@@ -3460,11 +3460,11 @@
         <v>523</v>
       </c>
       <c r="J33" s="2">
-        <f>SUMIF(D:D,I33,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2811194</v>
       </c>
       <c r="K33" s="3">
-        <f>J33/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.0893007076742088E-2</v>
       </c>
     </row>
@@ -3494,11 +3494,11 @@
         <v>524</v>
       </c>
       <c r="J34" s="2">
-        <f>SUMIF(D:D,I34,F:F)</f>
+        <f t="shared" si="2"/>
         <v>934054</v>
       </c>
       <c r="K34" s="3">
-        <f>J34/$J$144</f>
+        <f t="shared" si="3"/>
         <v>3.6193364214846982E-3</v>
       </c>
     </row>
@@ -3528,11 +3528,11 @@
         <v>525</v>
       </c>
       <c r="J35" s="2">
-        <f>SUMIF(D:D,I35,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1145047</v>
       </c>
       <c r="K35" s="3">
-        <f>J35/$J$144</f>
+        <f t="shared" si="3"/>
         <v>4.4369065508116116E-3</v>
       </c>
     </row>
@@ -3562,11 +3562,11 @@
         <v>526</v>
       </c>
       <c r="J36" s="2">
-        <f>SUMIF(D:D,I36,F:F)</f>
+        <f t="shared" si="2"/>
         <v>3066681</v>
       </c>
       <c r="K36" s="3">
-        <f>J36/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.1882985605088266E-2</v>
       </c>
     </row>
@@ -3596,11 +3596,11 @@
         <v>527</v>
       </c>
       <c r="J37" s="2">
-        <f>SUMIF(D:D,I37,F:F)</f>
+        <f t="shared" si="2"/>
         <v>5600658</v>
       </c>
       <c r="K37" s="3">
-        <f>J37/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.1701813260988814E-2</v>
       </c>
     </row>
@@ -3630,11 +3630,11 @@
         <v>528</v>
       </c>
       <c r="J38" s="2">
-        <f>SUMIF(D:D,I38,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1569748</v>
       </c>
       <c r="K38" s="3">
-        <f>J38/$J$144</f>
+        <f t="shared" si="3"/>
         <v>6.082567077441735E-3</v>
       </c>
     </row>
@@ -3664,11 +3664,11 @@
         <v>529</v>
       </c>
       <c r="J39" s="2">
-        <f>SUMIF(D:D,I39,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2020161</v>
       </c>
       <c r="K39" s="3">
-        <f>J39/$J$144</f>
+        <f t="shared" si="3"/>
         <v>7.8278582229324521E-3</v>
       </c>
     </row>
@@ -3698,11 +3698,11 @@
         <v>530</v>
       </c>
       <c r="J40" s="2">
-        <f>SUMIF(D:D,I40,F:F)</f>
+        <f t="shared" si="2"/>
         <v>5232851</v>
       </c>
       <c r="K40" s="3">
-        <f>J40/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.0276609502772457E-2</v>
       </c>
     </row>
@@ -3732,11 +3732,11 @@
         <v>531</v>
       </c>
       <c r="J41" s="2">
-        <f>SUMIF(D:D,I41,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2968775</v>
       </c>
       <c r="K41" s="3">
-        <f>J41/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.1503612729770693E-2</v>
       </c>
     </row>
@@ -3766,11 +3766,11 @@
         <v>532</v>
       </c>
       <c r="J42" s="2">
-        <f>SUMIF(D:D,I42,F:F)</f>
+        <f t="shared" si="2"/>
         <v>591122</v>
       </c>
       <c r="K42" s="3">
-        <f>J42/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.2905200171948067E-3</v>
       </c>
     </row>
@@ -3800,11 +3800,11 @@
         <v>533</v>
       </c>
       <c r="J43" s="2">
-        <f>SUMIF(D:D,I43,F:F)</f>
+        <f t="shared" si="2"/>
         <v>1861995</v>
       </c>
       <c r="K43" s="3">
-        <f>J43/$J$144</f>
+        <f t="shared" si="3"/>
         <v>7.2149857718316075E-3</v>
       </c>
     </row>
@@ -3834,11 +3834,11 @@
         <v>534</v>
       </c>
       <c r="J44" s="2">
-        <f>SUMIF(D:D,I44,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2608679</v>
       </c>
       <c r="K44" s="3">
-        <f>J44/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.0108288082554415E-2</v>
       </c>
     </row>
@@ -3868,11 +3868,11 @@
         <v>535</v>
       </c>
       <c r="J45" s="2">
-        <f>SUMIF(D:D,I45,F:F)</f>
+        <f t="shared" si="2"/>
         <v>6721546</v>
       </c>
       <c r="K45" s="3">
-        <f>J45/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.6045106863719643E-2</v>
       </c>
     </row>
@@ -3902,11 +3902,11 @@
         <v>536</v>
       </c>
       <c r="J46" s="2">
-        <f>SUMIF(D:D,I46,F:F)</f>
+        <f t="shared" si="2"/>
         <v>7038390</v>
       </c>
       <c r="K46" s="3">
-        <f>J46/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.7272835698593106E-2</v>
       </c>
     </row>
@@ -3936,11 +3936,11 @@
         <v>537</v>
       </c>
       <c r="J47" s="2">
-        <f>SUMIF(D:D,I47,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2006500</v>
       </c>
       <c r="K47" s="3">
-        <f>J47/$J$144</f>
+        <f t="shared" si="3"/>
         <v>7.774923644360012E-3</v>
       </c>
     </row>
@@ -3970,11 +3970,11 @@
         <v>538</v>
       </c>
       <c r="J48" s="2">
-        <f>SUMIF(D:D,I48,F:F)</f>
+        <f t="shared" si="2"/>
         <v>5537568</v>
       </c>
       <c r="K48" s="3">
-        <f>J48/$J$144</f>
+        <f t="shared" si="3"/>
         <v>2.1457347807351798E-2</v>
       </c>
     </row>
@@ -4004,11 +4004,11 @@
         <v>539</v>
       </c>
       <c r="J49" s="2">
-        <f>SUMIF(D:D,I49,F:F)</f>
+        <f t="shared" si="2"/>
         <v>122131</v>
       </c>
       <c r="K49" s="3">
-        <f>J49/$J$144</f>
+        <f t="shared" si="3"/>
         <v>4.7324156471932849E-4</v>
       </c>
     </row>
@@ -4038,11 +4038,11 @@
         <v>540</v>
       </c>
       <c r="J50" s="2">
-        <f>SUMIF(D:D,I50,F:F)</f>
+        <f t="shared" si="2"/>
         <v>3747845</v>
       </c>
       <c r="K50" s="3">
-        <f>J50/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.4522406531720135E-2</v>
       </c>
     </row>
@@ -4072,11 +4072,11 @@
         <v>541</v>
       </c>
       <c r="J51" s="2">
-        <f>SUMIF(D:D,I51,F:F)</f>
+        <f t="shared" si="2"/>
         <v>2961023</v>
       </c>
       <c r="K51" s="3">
-        <f>J51/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.1473574749162132E-2</v>
       </c>
     </row>
@@ -4106,11 +4106,11 @@
         <v>542</v>
       </c>
       <c r="J52" s="2">
-        <f>SUMIF(D:D,I52,F:F)</f>
+        <f t="shared" si="2"/>
         <v>3187190</v>
       </c>
       <c r="K52" s="3">
-        <f>J52/$J$144</f>
+        <f t="shared" si="3"/>
         <v>1.2349942133101314E-2</v>
       </c>
     </row>
@@ -4140,11 +4140,11 @@
         <v>543</v>
       </c>
       <c r="J53" s="2">
-        <f>SUMIF(D:D,I53,F:F)</f>
+        <f t="shared" ref="J53:J84" si="4">SUMIF(D:D,I53,F:F)</f>
         <v>5181886</v>
       </c>
       <c r="K53" s="3">
-        <f>J53/$J$144</f>
+        <f t="shared" ref="K53:K84" si="5">J53/$J$144</f>
         <v>2.0079126829692564E-2</v>
       </c>
     </row>
@@ -4174,11 +4174,11 @@
         <v>544</v>
       </c>
       <c r="J54" s="2">
-        <f>SUMIF(D:D,I54,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1281033</v>
       </c>
       <c r="K54" s="3">
-        <f>J54/$J$144</f>
+        <f t="shared" si="5"/>
         <v>4.9638344185922948E-3</v>
       </c>
     </row>
@@ -4208,11 +4208,11 @@
         <v>545</v>
       </c>
       <c r="J55" s="2">
-        <f>SUMIF(D:D,I55,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2275617</v>
       </c>
       <c r="K55" s="3">
-        <f>J55/$J$144</f>
+        <f t="shared" si="5"/>
         <v>8.8177166303551446E-3</v>
       </c>
     </row>
@@ -4242,11 +4242,11 @@
         <v>546</v>
       </c>
       <c r="J56" s="2">
-        <f>SUMIF(D:D,I56,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2062062</v>
       </c>
       <c r="K56" s="3">
-        <f>J56/$J$144</f>
+        <f t="shared" si="5"/>
         <v>7.9902190879323678E-3</v>
       </c>
     </row>
@@ -4276,11 +4276,11 @@
         <v>547</v>
       </c>
       <c r="J57" s="2">
-        <f>SUMIF(D:D,I57,F:F)</f>
+        <f t="shared" si="4"/>
         <v>3761565</v>
       </c>
       <c r="K57" s="3">
-        <f>J57/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.4575569727534049E-2</v>
       </c>
     </row>
@@ -4310,11 +4310,11 @@
         <v>548</v>
       </c>
       <c r="J58" s="2">
-        <f>SUMIF(D:D,I58,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2028396</v>
       </c>
       <c r="K58" s="3">
-        <f>J58/$J$144</f>
+        <f t="shared" si="5"/>
         <v>7.8597677650262994E-3</v>
       </c>
     </row>
@@ -4344,11 +4344,11 @@
         <v>549</v>
       </c>
       <c r="J59" s="2">
-        <f>SUMIF(D:D,I59,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1801206</v>
       </c>
       <c r="K59" s="3">
-        <f>J59/$J$144</f>
+        <f t="shared" si="5"/>
         <v>6.9794363906120708E-3</v>
       </c>
     </row>
@@ -4378,11 +4378,11 @@
         <v>550</v>
       </c>
       <c r="J60" s="2">
-        <f>SUMIF(D:D,I60,F:F)</f>
+        <f t="shared" si="4"/>
         <v>848373</v>
       </c>
       <c r="K60" s="3">
-        <f>J60/$J$144</f>
+        <f t="shared" si="5"/>
         <v>3.2873338135742023E-3</v>
       </c>
     </row>
@@ -4412,11 +4412,11 @@
         <v>551</v>
       </c>
       <c r="J61" s="2">
-        <f>SUMIF(D:D,I61,F:F)</f>
+        <f t="shared" si="4"/>
         <v>3303903</v>
       </c>
       <c r="K61" s="3">
-        <f>J61/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.2802189660290047E-2</v>
       </c>
     </row>
@@ -4446,11 +4446,11 @@
         <v>552</v>
       </c>
       <c r="J62" s="2">
-        <f>SUMIF(D:D,I62,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1711424</v>
       </c>
       <c r="K62" s="3">
-        <f>J62/$J$144</f>
+        <f t="shared" si="5"/>
         <v>6.631542946984894E-3</v>
       </c>
     </row>
@@ -4480,11 +4480,11 @@
         <v>553</v>
       </c>
       <c r="J63" s="2">
-        <f>SUMIF(D:D,I63,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1470523</v>
       </c>
       <c r="K63" s="3">
-        <f>J63/$J$144</f>
+        <f t="shared" si="5"/>
         <v>5.6980832505732458E-3</v>
       </c>
     </row>
@@ -4514,11 +4514,11 @@
         <v>554</v>
       </c>
       <c r="J64" s="2">
-        <f>SUMIF(D:D,I64,F:F)</f>
+        <f t="shared" si="4"/>
         <v>578642</v>
       </c>
       <c r="K64" s="3">
-        <f>J64/$J$144</f>
+        <f t="shared" si="5"/>
         <v>2.2421616583203421E-3</v>
       </c>
     </row>
@@ -4548,11 +4548,11 @@
         <v>555</v>
       </c>
       <c r="J65" s="2">
-        <f>SUMIF(D:D,I65,F:F)</f>
+        <f t="shared" si="4"/>
         <v>3810294</v>
       </c>
       <c r="K65" s="3">
-        <f>J65/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.4764388194648936E-2</v>
       </c>
     </row>
@@ -4582,11 +4582,11 @@
         <v>556</v>
       </c>
       <c r="J66" s="2">
-        <f>SUMIF(D:D,I66,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2224327</v>
       </c>
       <c r="K66" s="3">
-        <f>J66/$J$144</f>
+        <f t="shared" si="5"/>
         <v>8.6189746250128953E-3</v>
       </c>
     </row>
@@ -4616,11 +4616,11 @@
         <v>557</v>
       </c>
       <c r="J67" s="2">
-        <f>SUMIF(D:D,I67,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1855408</v>
       </c>
       <c r="K67" s="3">
-        <f>J67/$J$144</f>
+        <f t="shared" si="5"/>
         <v>7.1894620130250296E-3</v>
       </c>
     </row>
@@ -4650,11 +4650,11 @@
         <v>558</v>
       </c>
       <c r="J68" s="2">
-        <f>SUMIF(D:D,I68,F:F)</f>
+        <f t="shared" si="4"/>
         <v>252431</v>
       </c>
       <c r="K68" s="3">
-        <f>J68/$J$144</f>
+        <f t="shared" si="5"/>
         <v>9.7813693021153356E-4</v>
       </c>
     </row>
@@ -4684,11 +4684,11 @@
         <v>559</v>
       </c>
       <c r="J69" s="2">
-        <f>SUMIF(D:D,I69,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2299498</v>
       </c>
       <c r="K69" s="3">
-        <f>J69/$J$144</f>
+        <f t="shared" si="5"/>
         <v>8.9102523649930519E-3</v>
       </c>
     </row>
@@ -4718,11 +4718,11 @@
         <v>561</v>
       </c>
       <c r="J70" s="2">
-        <f>SUMIF(D:D,I70,F:F)</f>
+        <f t="shared" si="4"/>
         <v>920329</v>
       </c>
       <c r="K70" s="3">
-        <f>J70/$J$144</f>
+        <f t="shared" si="5"/>
         <v>3.5661538513282859E-3</v>
       </c>
     </row>
@@ -4752,11 +4752,11 @@
         <v>562</v>
       </c>
       <c r="J71" s="2">
-        <f>SUMIF(D:D,I71,F:F)</f>
+        <f t="shared" si="4"/>
         <v>488964</v>
       </c>
       <c r="K71" s="3">
-        <f>J71/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.8946712010171189E-3</v>
       </c>
     </row>
@@ -4786,11 +4786,11 @@
         <v>563</v>
       </c>
       <c r="J72" s="2">
-        <f>SUMIF(D:D,I72,F:F)</f>
+        <f t="shared" si="4"/>
         <v>4353603</v>
       </c>
       <c r="K72" s="3">
-        <f>J72/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.6869639124274451E-2</v>
       </c>
     </row>
@@ -4820,11 +4820,11 @@
         <v>564</v>
       </c>
       <c r="J73" s="2">
-        <f>SUMIF(D:D,I73,F:F)</f>
+        <f t="shared" si="4"/>
         <v>7488132</v>
       </c>
       <c r="K73" s="3">
-        <f>J73/$J$144</f>
+        <f t="shared" si="5"/>
         <v>2.9015526807320623E-2</v>
       </c>
     </row>
@@ -4854,11 +4854,11 @@
         <v>566</v>
       </c>
       <c r="J74" s="2">
-        <f>SUMIF(D:D,I74,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1450582</v>
       </c>
       <c r="K74" s="3">
-        <f>J74/$J$144</f>
+        <f t="shared" si="5"/>
         <v>5.6208144978235914E-3</v>
       </c>
     </row>
@@ -4888,11 +4888,11 @@
         <v>567</v>
       </c>
       <c r="J75" s="2">
-        <f>SUMIF(D:D,I75,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2415665</v>
       </c>
       <c r="K75" s="3">
-        <f>J75/$J$144</f>
+        <f t="shared" si="5"/>
         <v>9.3603842139810267E-3</v>
       </c>
     </row>
@@ -4922,11 +4922,11 @@
         <v>568</v>
       </c>
       <c r="J76" s="2">
-        <f>SUMIF(D:D,I76,F:F)</f>
+        <f t="shared" si="4"/>
         <v>4002789</v>
       </c>
       <c r="K76" s="3">
-        <f>J76/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.5510281006471054E-2</v>
       </c>
     </row>
@@ -4956,11 +4956,11 @@
         <v>570</v>
       </c>
       <c r="J77" s="2">
-        <f>SUMIF(D:D,I77,F:F)</f>
+        <f t="shared" si="4"/>
         <v>6320692</v>
       </c>
       <c r="K77" s="3">
-        <f>J77/$J$144</f>
+        <f t="shared" si="5"/>
         <v>2.4491850326198442E-2</v>
       </c>
     </row>
@@ -4990,11 +4990,11 @@
         <v>571</v>
       </c>
       <c r="J78" s="2">
-        <f>SUMIF(D:D,I78,F:F)</f>
+        <f t="shared" si="4"/>
         <v>2306682</v>
       </c>
       <c r="K78" s="3">
-        <f>J78/$J$144</f>
+        <f t="shared" si="5"/>
         <v>8.9380894202938654E-3</v>
       </c>
     </row>
@@ -5024,11 +5024,11 @@
         <v>572</v>
       </c>
       <c r="J79" s="2">
-        <f>SUMIF(D:D,I79,F:F)</f>
+        <f t="shared" si="4"/>
         <v>668036</v>
       </c>
       <c r="K79" s="3">
-        <f>J79/$J$144</f>
+        <f t="shared" si="5"/>
         <v>2.588551652969691E-3</v>
       </c>
     </row>
@@ -5058,11 +5058,11 @@
         <v>573</v>
       </c>
       <c r="J80" s="2">
-        <f>SUMIF(D:D,I80,F:F)</f>
+        <f t="shared" si="4"/>
         <v>5219197</v>
       </c>
       <c r="K80" s="3">
-        <f>J80/$J$144</f>
+        <f t="shared" si="5"/>
         <v>2.0223702048279512E-2</v>
       </c>
     </row>
@@ -5092,11 +5092,11 @@
         <v>574</v>
       </c>
       <c r="J81" s="2">
-        <f>SUMIF(D:D,I81,F:F)</f>
+        <f t="shared" si="4"/>
         <v>600015</v>
       </c>
       <c r="K81" s="3">
-        <f>J81/$J$144</f>
+        <f t="shared" si="5"/>
         <v>2.3249792227613619E-3</v>
       </c>
     </row>
@@ -5126,11 +5126,11 @@
         <v>575</v>
       </c>
       <c r="J82" s="2">
-        <f>SUMIF(D:D,I82,F:F)</f>
+        <f t="shared" si="4"/>
         <v>274024</v>
       </c>
       <c r="K82" s="3">
-        <f>J82/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.061806965722456E-3</v>
       </c>
     </row>
@@ -5160,11 +5160,11 @@
         <v>576</v>
       </c>
       <c r="J83" s="2">
-        <f>SUMIF(D:D,I83,F:F)</f>
+        <f t="shared" si="4"/>
         <v>512110</v>
       </c>
       <c r="K83" s="3">
-        <f>J83/$J$144</f>
+        <f t="shared" si="5"/>
         <v>1.9843589073078524E-3</v>
       </c>
     </row>
@@ -5194,11 +5194,11 @@
         <v>577</v>
       </c>
       <c r="J84" s="2">
-        <f>SUMIF(D:D,I84,F:F)</f>
+        <f t="shared" si="4"/>
         <v>1106508</v>
       </c>
       <c r="K84" s="3">
-        <f>J84/$J$144</f>
+        <f t="shared" si="5"/>
         <v>4.2875729937072058E-3</v>
       </c>
     </row>
@@ -5228,11 +5228,11 @@
         <v>578</v>
       </c>
       <c r="J85" s="2">
-        <f>SUMIF(D:D,I85,F:F)</f>
+        <f t="shared" ref="J85:J116" si="6">SUMIF(D:D,I85,F:F)</f>
         <v>1941991</v>
       </c>
       <c r="K85" s="3">
-        <f>J85/$J$144</f>
+        <f t="shared" ref="K85:K116" si="7">J85/$J$144</f>
         <v>7.5249597523221251E-3</v>
       </c>
     </row>
@@ -5262,11 +5262,11 @@
         <v>579</v>
       </c>
       <c r="J86" s="2">
-        <f>SUMIF(D:D,I86,F:F)</f>
+        <f t="shared" si="6"/>
         <v>2057772</v>
       </c>
       <c r="K86" s="3">
-        <f>J86/$J$144</f>
+        <f t="shared" si="7"/>
         <v>7.97359590206927E-3</v>
       </c>
     </row>
@@ -5296,11 +5296,11 @@
         <v>580</v>
       </c>
       <c r="J87" s="2">
-        <f>SUMIF(D:D,I87,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1233463</v>
       </c>
       <c r="K87" s="3">
-        <f>J87/$J$144</f>
+        <f t="shared" si="7"/>
         <v>4.7795069240683949E-3</v>
       </c>
     </row>
@@ -5330,11 +5330,11 @@
         <v>581</v>
       </c>
       <c r="J88" s="2">
-        <f>SUMIF(D:D,I88,F:F)</f>
+        <f t="shared" si="6"/>
         <v>2552327</v>
       </c>
       <c r="K88" s="3">
-        <f>J88/$J$144</f>
+        <f t="shared" si="7"/>
         <v>9.8899314928674095E-3</v>
       </c>
     </row>
@@ -5364,11 +5364,11 @@
         <v>582</v>
       </c>
       <c r="J89" s="2">
-        <f>SUMIF(D:D,I89,F:F)</f>
+        <f t="shared" si="6"/>
         <v>2748391</v>
       </c>
       <c r="K89" s="3">
-        <f>J89/$J$144</f>
+        <f t="shared" si="7"/>
         <v>1.0649653710364445E-2</v>
       </c>
     </row>
@@ -5398,11 +5398,11 @@
         <v>583</v>
       </c>
       <c r="J90" s="2">
-        <f>SUMIF(D:D,I90,F:F)</f>
+        <f t="shared" si="6"/>
         <v>469426</v>
       </c>
       <c r="K90" s="3">
-        <f>J90/$J$144</f>
+        <f t="shared" si="7"/>
         <v>1.8189640202727849E-3</v>
       </c>
     </row>
@@ -5432,11 +5432,11 @@
         <v>584</v>
       </c>
       <c r="J91" s="2">
-        <f>SUMIF(D:D,I91,F:F)</f>
+        <f t="shared" si="6"/>
         <v>5358763</v>
       </c>
       <c r="K91" s="3">
-        <f>J91/$J$144</f>
+        <f t="shared" si="7"/>
         <v>2.0764501945288609E-2</v>
       </c>
     </row>
@@ -5466,11 +5466,11 @@
         <v>585</v>
       </c>
       <c r="J92" s="2">
-        <f>SUMIF(D:D,I92,F:F)</f>
+        <f t="shared" si="6"/>
         <v>917354</v>
       </c>
       <c r="K92" s="3">
-        <f>J92/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.5546261175421054E-3</v>
       </c>
     </row>
@@ -5500,11 +5500,11 @@
         <v>587</v>
       </c>
       <c r="J93" s="2">
-        <f>SUMIF(D:D,I93,F:F)</f>
+        <f t="shared" si="6"/>
         <v>863456</v>
       </c>
       <c r="K93" s="3">
-        <f>J93/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.3457784551530123E-3</v>
       </c>
     </row>
@@ -5534,11 +5534,11 @@
         <v>588</v>
       </c>
       <c r="J94" s="2">
-        <f>SUMIF(D:D,I94,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1577983</v>
       </c>
       <c r="K94" s="3">
-        <f>J94/$J$144</f>
+        <f t="shared" si="7"/>
         <v>6.1144766195355823E-3</v>
       </c>
     </row>
@@ -5568,11 +5568,11 @@
         <v>589</v>
       </c>
       <c r="J95" s="2">
-        <f>SUMIF(D:D,I95,F:F)</f>
+        <f t="shared" si="6"/>
         <v>7820324</v>
       </c>
       <c r="K95" s="3">
-        <f>J95/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.0302727123925278E-2</v>
       </c>
     </row>
@@ -5602,11 +5602,11 @@
         <v>590</v>
       </c>
       <c r="J96" s="2">
-        <f>SUMIF(D:D,I96,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1602760</v>
       </c>
       <c r="K96" s="3">
-        <f>J96/$J$144</f>
+        <f t="shared" si="7"/>
         <v>6.2104842363490918E-3</v>
       </c>
     </row>
@@ -5636,11 +5636,11 @@
         <v>591</v>
       </c>
       <c r="J97" s="2">
-        <f>SUMIF(D:D,I97,F:F)</f>
+        <f t="shared" si="6"/>
         <v>2945583</v>
       </c>
       <c r="K97" s="3">
-        <f>J97/$J$144</f>
+        <f t="shared" si="7"/>
         <v>1.141374677952898E-2</v>
       </c>
     </row>
@@ -5670,11 +5670,11 @@
         <v>592</v>
       </c>
       <c r="J98" s="2">
-        <f>SUMIF(D:D,I98,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1575723</v>
       </c>
       <c r="K98" s="3">
-        <f>J98/$J$144</f>
+        <f t="shared" si="7"/>
         <v>6.1057194167265846E-3</v>
       </c>
     </row>
@@ -5704,11 +5704,11 @@
         <v>593</v>
       </c>
       <c r="J99" s="2">
-        <f>SUMIF(D:D,I99,F:F)</f>
+        <f t="shared" si="6"/>
         <v>135762</v>
       </c>
       <c r="K99" s="3">
-        <f>J99/$J$144</f>
+        <f t="shared" si="7"/>
         <v>5.2605989723678243E-4</v>
       </c>
     </row>
@@ -5738,11 +5738,11 @@
         <v>594</v>
       </c>
       <c r="J100" s="2">
-        <f>SUMIF(D:D,I100,F:F)</f>
+        <f t="shared" si="6"/>
         <v>3082662</v>
       </c>
       <c r="K100" s="3">
-        <f>J100/$J$144</f>
+        <f t="shared" si="7"/>
         <v>1.1944909878579678E-2</v>
       </c>
     </row>
@@ -5772,11 +5772,11 @@
         <v>595</v>
       </c>
       <c r="J101" s="2">
-        <f>SUMIF(D:D,I101,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1083582</v>
       </c>
       <c r="K101" s="3">
-        <f>J101/$J$144</f>
+        <f t="shared" si="7"/>
         <v>4.1987377584863745E-3</v>
       </c>
     </row>
@@ -5806,11 +5806,11 @@
         <v>596</v>
       </c>
       <c r="J102" s="2">
-        <f>SUMIF(D:D,I102,F:F)</f>
+        <f t="shared" si="6"/>
         <v>163721</v>
       </c>
       <c r="K102" s="3">
-        <f>J102/$J$144</f>
+        <f t="shared" si="7"/>
         <v>6.3439734561588116E-4</v>
       </c>
     </row>
@@ -5840,11 +5840,11 @@
         <v>597</v>
       </c>
       <c r="J103" s="2">
-        <f>SUMIF(D:D,I103,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1478941</v>
       </c>
       <c r="K103" s="3">
-        <f>J103/$J$144</f>
+        <f t="shared" si="7"/>
         <v>5.7307018936025127E-3</v>
       </c>
     </row>
@@ -5874,11 +5874,11 @@
         <v>598</v>
       </c>
       <c r="J104" s="2">
-        <f>SUMIF(D:D,I104,F:F)</f>
+        <f t="shared" si="6"/>
         <v>625975</v>
       </c>
       <c r="K104" s="3">
-        <f>J104/$J$144</f>
+        <f t="shared" si="7"/>
         <v>2.4255708090098476E-3</v>
       </c>
     </row>
@@ -5908,11 +5908,11 @@
         <v>600</v>
       </c>
       <c r="J105" s="2">
-        <f>SUMIF(D:D,I105,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1353577</v>
       </c>
       <c r="K105" s="3">
-        <f>J105/$J$144</f>
+        <f t="shared" si="7"/>
         <v>5.2449328790241181E-3</v>
       </c>
     </row>
@@ -5942,11 +5942,11 @@
         <v>601</v>
       </c>
       <c r="J106" s="2">
-        <f>SUMIF(D:D,I106,F:F)</f>
+        <f t="shared" si="6"/>
         <v>906944</v>
       </c>
       <c r="K106" s="3">
-        <f>J106/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.5142887364617227E-3</v>
       </c>
     </row>
@@ -5976,11 +5976,11 @@
         <v>602</v>
       </c>
       <c r="J107" s="2">
-        <f>SUMIF(D:D,I107,F:F)</f>
+        <f t="shared" si="6"/>
         <v>742663</v>
       </c>
       <c r="K107" s="3">
-        <f>J107/$J$144</f>
+        <f t="shared" si="7"/>
         <v>2.87772146448609E-3</v>
       </c>
     </row>
@@ -6010,11 +6010,11 @@
         <v>604</v>
       </c>
       <c r="J108" s="2">
-        <f>SUMIF(D:D,I108,F:F)</f>
+        <f t="shared" si="6"/>
         <v>3671116</v>
       </c>
       <c r="K108" s="3">
-        <f>J108/$J$144</f>
+        <f t="shared" si="7"/>
         <v>1.4225091746617667E-2</v>
       </c>
     </row>
@@ -6044,11 +6044,11 @@
         <v>605</v>
       </c>
       <c r="J109" s="2">
-        <f>SUMIF(D:D,I109,F:F)</f>
+        <f t="shared" si="6"/>
         <v>996656</v>
       </c>
       <c r="K109" s="3">
-        <f>J109/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.8619109392939309E-3</v>
       </c>
     </row>
@@ -6078,11 +6078,11 @@
         <v>606</v>
       </c>
       <c r="J110" s="2">
-        <f>SUMIF(D:D,I110,F:F)</f>
+        <f t="shared" si="6"/>
         <v>862201</v>
       </c>
       <c r="K110" s="3">
-        <f>J110/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.3409154951860687E-3</v>
       </c>
     </row>
@@ -6112,11 +6112,11 @@
         <v>607</v>
       </c>
       <c r="J111" s="2">
-        <f>SUMIF(D:D,I111,F:F)</f>
+        <f t="shared" si="6"/>
         <v>942786</v>
       </c>
       <c r="K111" s="3">
-        <f>J111/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.6531717732228249E-3</v>
       </c>
     </row>
@@ -6146,11 +6146,11 @@
         <v>608</v>
       </c>
       <c r="J112" s="2">
-        <f>SUMIF(D:D,I112,F:F)</f>
+        <f t="shared" si="6"/>
         <v>992048</v>
       </c>
       <c r="K112" s="3">
-        <f>J112/$J$144</f>
+        <f t="shared" si="7"/>
         <v>3.8440555452479747E-3</v>
       </c>
     </row>
@@ -6180,11 +6180,11 @@
         <v>609</v>
       </c>
       <c r="J113" s="2">
-        <f>SUMIF(D:D,I113,F:F)</f>
+        <f t="shared" si="6"/>
         <v>612658</v>
       </c>
       <c r="K113" s="3">
-        <f>J113/$J$144</f>
+        <f t="shared" si="7"/>
         <v>2.3739691852012542E-3</v>
       </c>
     </row>
@@ -6214,11 +6214,11 @@
         <v>610</v>
       </c>
       <c r="J114" s="2">
-        <f>SUMIF(D:D,I114,F:F)</f>
+        <f t="shared" si="6"/>
         <v>1450799</v>
       </c>
       <c r="K114" s="3">
-        <f>J114/$J$144</f>
+        <f t="shared" si="7"/>
         <v>5.6216553442879945E-3</v>
       </c>
     </row>
@@ -6248,11 +6248,11 @@
         <v>611</v>
       </c>
       <c r="J115" s="2">
-        <f>SUMIF(D:D,I115,F:F)</f>
+        <f t="shared" si="6"/>
         <v>669411</v>
       </c>
       <c r="K115" s="3">
-        <f>J115/$J$144</f>
+        <f t="shared" si="7"/>
         <v>2.593879597156581E-3</v>
       </c>
     </row>
@@ -6282,11 +6282,11 @@
         <v>612</v>
       </c>
       <c r="J116" s="2">
-        <f>SUMIF(D:D,I116,F:F)</f>
+        <f t="shared" si="6"/>
         <v>604829</v>
       </c>
       <c r="K116" s="3">
-        <f>J116/$J$144</f>
+        <f t="shared" si="7"/>
         <v>2.3436328397182268E-3</v>
       </c>
     </row>
@@ -6316,11 +6316,11 @@
         <v>613</v>
       </c>
       <c r="J117" s="2">
-        <f>SUMIF(D:D,I117,F:F)</f>
+        <f t="shared" ref="J117:J148" si="8">SUMIF(D:D,I117,F:F)</f>
         <v>447746</v>
       </c>
       <c r="K117" s="3">
-        <f>J117/$J$144</f>
+        <f t="shared" ref="K117:K148" si="9">J117/$J$144</f>
         <v>1.7349568712024012E-3</v>
       </c>
     </row>
@@ -6350,11 +6350,11 @@
         <v>614</v>
       </c>
       <c r="J118" s="2">
-        <f>SUMIF(D:D,I118,F:F)</f>
+        <f t="shared" si="8"/>
         <v>719301</v>
       </c>
       <c r="K118" s="3">
-        <f>J118/$J$144</f>
+        <f t="shared" si="9"/>
         <v>2.7871967865994523E-3</v>
       </c>
     </row>
@@ -6384,11 +6384,11 @@
         <v>615</v>
       </c>
       <c r="J119" s="2">
-        <f>SUMIF(D:D,I119,F:F)</f>
+        <f t="shared" si="8"/>
         <v>1156873</v>
       </c>
       <c r="K119" s="3">
-        <f>J119/$J$144</f>
+        <f t="shared" si="9"/>
         <v>4.4827307456873659E-3</v>
       </c>
     </row>
@@ -6418,11 +6418,11 @@
         <v>616</v>
       </c>
       <c r="J120" s="2">
-        <f>SUMIF(D:D,I120,F:F)</f>
+        <f t="shared" si="8"/>
         <v>945230</v>
       </c>
       <c r="K120" s="3">
-        <f>J120/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.6626419518357412E-3</v>
       </c>
     </row>
@@ -6452,11 +6452,11 @@
         <v>617</v>
       </c>
       <c r="J121" s="2">
-        <f>SUMIF(D:D,I121,F:F)</f>
+        <f t="shared" si="8"/>
         <v>1724330</v>
       </c>
       <c r="K121" s="3">
-        <f>J121/$J$144</f>
+        <f t="shared" si="9"/>
         <v>6.6815519998401698E-3</v>
       </c>
     </row>
@@ -6486,11 +6486,11 @@
         <v>618</v>
       </c>
       <c r="J122" s="2">
-        <f>SUMIF(D:D,I122,F:F)</f>
+        <f t="shared" si="8"/>
         <v>1429777</v>
       </c>
       <c r="K122" s="3">
-        <f>J122/$J$144</f>
+        <f t="shared" si="9"/>
         <v>5.5401978586903187E-3</v>
       </c>
     </row>
@@ -6520,11 +6520,11 @@
         <v>619</v>
       </c>
       <c r="J123" s="2">
-        <f>SUMIF(D:D,I123,F:F)</f>
+        <f t="shared" si="8"/>
         <v>645773</v>
       </c>
       <c r="K123" s="3">
-        <f>J123/$J$144</f>
+        <f t="shared" si="9"/>
         <v>2.502285455564066E-3</v>
       </c>
     </row>
@@ -6554,11 +6554,11 @@
         <v>620</v>
       </c>
       <c r="J124" s="2">
-        <f>SUMIF(D:D,I124,F:F)</f>
+        <f t="shared" si="8"/>
         <v>828918</v>
       </c>
       <c r="K124" s="3">
-        <f>J124/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.2119482469153316E-3</v>
       </c>
     </row>
@@ -6588,11 +6588,11 @@
         <v>621</v>
       </c>
       <c r="J125" s="2">
-        <f>SUMIF(D:D,I125,F:F)</f>
+        <f t="shared" si="8"/>
         <v>106275</v>
       </c>
       <c r="K125" s="3">
-        <f>J125/$J$144</f>
+        <f t="shared" si="9"/>
         <v>4.1180164979036149E-4</v>
       </c>
     </row>
@@ -6622,11 +6622,11 @@
         <v>622</v>
       </c>
       <c r="J126" s="2">
-        <f>SUMIF(D:D,I126,F:F)</f>
+        <f t="shared" si="8"/>
         <v>1302421</v>
       </c>
       <c r="K126" s="3">
-        <f>J126/$J$144</f>
+        <f t="shared" si="9"/>
         <v>5.046710106060808E-3</v>
       </c>
     </row>
@@ -6656,11 +6656,11 @@
         <v>623</v>
       </c>
       <c r="J127" s="2">
-        <f>SUMIF(D:D,I127,F:F)</f>
+        <f t="shared" si="8"/>
         <v>675709</v>
       </c>
       <c r="K127" s="3">
-        <f>J127/$J$144</f>
+        <f t="shared" si="9"/>
         <v>2.6182835189667878E-3</v>
       </c>
     </row>
@@ -6690,11 +6690,11 @@
         <v>624</v>
       </c>
       <c r="J128" s="2">
-        <f>SUMIF(D:D,I128,F:F)</f>
+        <f t="shared" si="8"/>
         <v>807543</v>
       </c>
       <c r="K128" s="3">
-        <f>J128/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.1291229327373125E-3</v>
       </c>
     </row>
@@ -6724,11 +6724,11 @@
         <v>626</v>
       </c>
       <c r="J129" s="2">
-        <f>SUMIF(D:D,I129,F:F)</f>
+        <f t="shared" si="8"/>
         <v>739195</v>
       </c>
       <c r="K129" s="3">
-        <f>J129/$J$144</f>
+        <f t="shared" si="9"/>
         <v>2.8642834205296285E-3</v>
       </c>
     </row>
@@ -6758,11 +6758,11 @@
         <v>627</v>
       </c>
       <c r="J130" s="2">
-        <f>SUMIF(D:D,I130,F:F)</f>
+        <f t="shared" si="8"/>
         <v>504761</v>
       </c>
       <c r="K130" s="3">
-        <f>J130/$J$144</f>
+        <f t="shared" si="9"/>
         <v>1.9558824987046123E-3</v>
       </c>
     </row>
@@ -6792,11 +6792,11 @@
         <v>628</v>
       </c>
       <c r="J131" s="2">
-        <f>SUMIF(D:D,I131,F:F)</f>
+        <f t="shared" si="8"/>
         <v>971476</v>
       </c>
       <c r="K131" s="3">
-        <f>J131/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.7643417504750996E-3</v>
       </c>
     </row>
@@ -6826,11 +6826,11 @@
         <v>629</v>
       </c>
       <c r="J132" s="2">
-        <f>SUMIF(D:D,I132,F:F)</f>
+        <f t="shared" si="8"/>
         <v>1259369</v>
       </c>
       <c r="K132" s="3">
-        <f>J132/$J$144</f>
+        <f t="shared" si="9"/>
         <v>4.8798892674179039E-3</v>
       </c>
     </row>
@@ -6860,11 +6860,11 @@
         <v>630</v>
       </c>
       <c r="J133" s="2">
-        <f>SUMIF(D:D,I133,F:F)</f>
+        <f t="shared" si="8"/>
         <v>3567125</v>
       </c>
       <c r="K133" s="3">
-        <f>J133/$J$144</f>
+        <f t="shared" si="9"/>
         <v>1.3822140296480294E-2</v>
       </c>
     </row>
@@ -6894,11 +6894,11 @@
         <v>632</v>
       </c>
       <c r="J134" s="2">
-        <f>SUMIF(D:D,I134,F:F)</f>
+        <f t="shared" si="8"/>
         <v>273433</v>
       </c>
       <c r="K134" s="3">
-        <f>J134/$J$144</f>
+        <f t="shared" si="9"/>
         <v>1.0595169184392181E-3</v>
       </c>
     </row>
@@ -6928,11 +6928,11 @@
         <v>634</v>
       </c>
       <c r="J135" s="2">
-        <f>SUMIF(D:D,I135,F:F)</f>
+        <f t="shared" si="8"/>
         <v>1982785</v>
       </c>
       <c r="K135" s="3">
-        <f>J135/$J$144</f>
+        <f t="shared" si="9"/>
         <v>7.6830311378930311E-3</v>
       </c>
     </row>
@@ -6962,11 +6962,11 @@
         <v>635</v>
       </c>
       <c r="J136" s="2">
-        <f>SUMIF(D:D,I136,F:F)</f>
+        <f t="shared" si="8"/>
         <v>216411</v>
       </c>
       <c r="K136" s="3">
-        <f>J136/$J$144</f>
+        <f t="shared" si="9"/>
         <v>8.3856416685751042E-4</v>
       </c>
     </row>
@@ -6996,11 +6996,11 @@
         <v>636</v>
       </c>
       <c r="J137" s="2">
-        <f>SUMIF(D:D,I137,F:F)</f>
+        <f t="shared" si="8"/>
         <v>711439</v>
       </c>
       <c r="K137" s="3">
-        <f>J137/$J$144</f>
+        <f t="shared" si="9"/>
         <v>2.7567325704559394E-3</v>
       </c>
     </row>
@@ -7030,11 +7030,11 @@
         <v>639</v>
       </c>
       <c r="J138" s="2">
-        <f>SUMIF(D:D,I138,F:F)</f>
+        <f t="shared" si="8"/>
         <v>975036</v>
       </c>
       <c r="K138" s="3">
-        <f>J138/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.7781362823335204E-3</v>
       </c>
     </row>
@@ -7064,11 +7064,11 @@
         <v>640</v>
       </c>
       <c r="J139" s="2">
-        <f>SUMIF(D:D,I139,F:F)</f>
+        <f t="shared" si="8"/>
         <v>346479</v>
       </c>
       <c r="K139" s="3">
-        <f>J139/$J$144</f>
+        <f t="shared" si="9"/>
         <v>1.3425605628578185E-3</v>
       </c>
     </row>
@@ -7098,11 +7098,11 @@
         <v>641</v>
       </c>
       <c r="J140" s="2">
-        <f>SUMIF(D:D,I140,F:F)</f>
+        <f t="shared" si="8"/>
         <v>504971</v>
       </c>
       <c r="K140" s="3">
-        <f>J140/$J$144</f>
+        <f t="shared" si="9"/>
         <v>1.956696221089519E-3</v>
       </c>
     </row>
@@ -7132,11 +7132,11 @@
         <v>642</v>
       </c>
       <c r="J141" s="2">
-        <f>SUMIF(D:D,I141,F:F)</f>
+        <f t="shared" si="8"/>
         <v>92771</v>
       </c>
       <c r="K141" s="3">
-        <f>J141/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.5947542557235123E-4</v>
       </c>
     </row>
@@ -7166,11 +7166,11 @@
         <v>644</v>
       </c>
       <c r="J142" s="2">
-        <f>SUMIF(D:D,I142,F:F)</f>
+        <f t="shared" si="8"/>
         <v>686565</v>
       </c>
       <c r="K142" s="3">
-        <f>J142/$J$144</f>
+        <f t="shared" si="9"/>
         <v>2.6603490913979723E-3</v>
       </c>
     </row>
@@ -7200,11 +7200,11 @@
         <v>645</v>
       </c>
       <c r="J143" s="2">
-        <f>SUMIF(D:D,I143,F:F)</f>
+        <f t="shared" si="8"/>
         <v>831592</v>
       </c>
       <c r="K143" s="3">
-        <f>J143/$J$144</f>
+        <f t="shared" si="9"/>
         <v>3.2223096452831455E-3</v>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
         <v>258073274</v>
       </c>
       <c r="K144" s="3">
-        <f>J144/$J$144</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -15591,7 +15591,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K147 K149">
+  <conditionalFormatting sqref="K149 K147">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -15615,7 +15615,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K5 K3">
+  <conditionalFormatting sqref="K3 K5">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
